--- a/Regresion-Lineal/data/linear_regression_practice_100_rows.xlsx
+++ b/Regresion-Lineal/data/linear_regression_practice_100_rows.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dani/Desktop/Machine-Learning/Regresion-Lineal/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204014ED-4B21-654D-A6E3-487658D0EC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +101,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +153,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +222,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>28</v>
       </c>
@@ -417,7 +438,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>58</v>
       </c>
@@ -431,7 +452,7 @@
         <v>72060</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -445,7 +466,7 @@
         <v>45405</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>55</v>
       </c>
@@ -459,7 +480,7 @@
         <v>74387</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>59</v>
       </c>
@@ -473,7 +494,7 @@
         <v>66640</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -487,7 +508,7 @@
         <v>46533</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>58</v>
       </c>
@@ -501,7 +522,7 @@
         <v>64636</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>25</v>
       </c>
@@ -515,7 +536,7 @@
         <v>35606</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64</v>
       </c>
@@ -529,7 +550,7 @@
         <v>65136</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>57</v>
       </c>
@@ -543,7 +564,7 @@
         <v>82114</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -557,7 +578,7 @@
         <v>42448</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>33</v>
       </c>
@@ -571,7 +592,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>26</v>
       </c>
@@ -585,7 +606,7 @@
         <v>45995</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>54</v>
       </c>
@@ -599,7 +620,7 @@
         <v>47782</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34</v>
       </c>
@@ -613,7 +634,7 @@
         <v>63055</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>56</v>
       </c>
@@ -627,7 +648,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>35</v>
       </c>
@@ -641,7 +662,7 @@
         <v>56503</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
@@ -655,7 +676,7 @@
         <v>46834</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -669,7 +690,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>49</v>
       </c>
@@ -683,7 +704,7 @@
         <v>59541</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
@@ -697,7 +718,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>27</v>
       </c>
@@ -711,7 +732,7 @@
         <v>48255</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -725,7 +746,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>36</v>
       </c>
@@ -739,7 +760,7 @@
         <v>57576</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>42</v>
       </c>
@@ -753,7 +774,7 @@
         <v>50774</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>22</v>
       </c>
@@ -767,7 +788,7 @@
         <v>35174</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>46</v>
       </c>
@@ -781,7 +802,7 @@
         <v>67785</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -795,7 +816,7 @@
         <v>62085</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
@@ -809,7 +830,7 @@
         <v>53276</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>64</v>
       </c>
@@ -823,7 +844,7 @@
         <v>71550</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>55</v>
       </c>
@@ -837,7 +858,7 @@
         <v>59899</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>27</v>
       </c>
@@ -851,7 +872,7 @@
         <v>44611</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>19</v>
       </c>
@@ -865,7 +886,7 @@
         <v>30080</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>50</v>
       </c>
@@ -879,7 +900,7 @@
         <v>70102</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>39</v>
       </c>
@@ -893,7 +914,7 @@
         <v>56024</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>49</v>
       </c>
@@ -907,7 +928,7 @@
         <v>77648</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -921,7 +942,7 @@
         <v>58057</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>62</v>
       </c>
@@ -935,7 +956,7 @@
         <v>96663</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>34</v>
       </c>
@@ -949,7 +970,7 @@
         <v>40517</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>55</v>
       </c>
@@ -963,7 +984,7 @@
         <v>60721</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>56</v>
       </c>
@@ -977,7 +998,7 @@
         <v>60815</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>31</v>
       </c>
@@ -991,7 +1012,7 @@
         <v>55352</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>49</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>59588</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24</v>
       </c>
@@ -1019,7 +1040,7 @@
         <v>46228</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40</v>
       </c>
@@ -1033,7 +1054,7 @@
         <v>50810</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>29</v>
       </c>
@@ -1047,7 +1068,7 @@
         <v>44401</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>64</v>
       </c>
@@ -1061,7 +1082,7 @@
         <v>75370</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>26</v>
       </c>
@@ -1075,7 +1096,7 @@
         <v>41260</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>22</v>
       </c>
@@ -1089,7 +1110,7 @@
         <v>37761</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52</v>
       </c>
@@ -1103,7 +1124,7 @@
         <v>81200</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>64</v>
       </c>
@@ -1117,7 +1138,7 @@
         <v>92906</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>58</v>
       </c>
@@ -1131,7 +1152,7 @@
         <v>90091</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>21</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>40514</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>63</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>90698</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>61</v>
       </c>
@@ -1173,7 +1194,7 @@
         <v>56282</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>66357</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>33</v>
       </c>
@@ -1201,7 +1222,7 @@
         <v>50266</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>49</v>
       </c>
@@ -1215,7 +1236,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -1229,7 +1250,7 @@
         <v>40994</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>37</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>35</v>
       </c>
@@ -1257,7 +1278,7 @@
         <v>46697</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>56</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>83577</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>59</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>68722</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>18</v>
       </c>
@@ -1299,7 +1320,7 @@
         <v>29165</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>22</v>
       </c>
@@ -1313,7 +1334,7 @@
         <v>46548</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>50</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>77555</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>44</v>
       </c>
@@ -1341,7 +1362,7 @@
         <v>46537</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>33</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>57613</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>34</v>
       </c>
@@ -1369,7 +1390,7 @@
         <v>46636</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>60</v>
       </c>
@@ -1383,7 +1404,7 @@
         <v>87679</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>23</v>
       </c>
@@ -1397,7 +1418,7 @@
         <v>42473</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>28</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>46</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>67203</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>57</v>
       </c>
@@ -1439,7 +1460,7 @@
         <v>71221</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>23</v>
       </c>
@@ -1453,7 +1474,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>27</v>
       </c>
@@ -1467,7 +1488,7 @@
         <v>38407</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>60</v>
       </c>
@@ -1481,7 +1502,7 @@
         <v>57463</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39</v>
       </c>
@@ -1495,7 +1516,7 @@
         <v>53370</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>32</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>43102</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>52</v>
       </c>
@@ -1523,7 +1544,7 @@
         <v>60631</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>63</v>
       </c>
@@ -1537,7 +1558,7 @@
         <v>67503</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>24</v>
       </c>
@@ -1551,7 +1572,7 @@
         <v>41644</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>49</v>
       </c>
@@ -1565,7 +1586,7 @@
         <v>49721</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>45</v>
       </c>
@@ -1579,7 +1600,7 @@
         <v>57123</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>61</v>
       </c>
@@ -1593,7 +1614,7 @@
         <v>98393</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>43</v>
       </c>
@@ -1607,7 +1628,7 @@
         <v>58388</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20</v>
       </c>
@@ -1621,7 +1642,7 @@
         <v>39805</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>45</v>
       </c>
@@ -1635,7 +1656,7 @@
         <v>70408</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>57</v>
       </c>
@@ -1649,7 +1670,7 @@
         <v>66907</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>59</v>
       </c>
@@ -1663,7 +1684,7 @@
         <v>71281</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>31</v>
       </c>
@@ -1677,7 +1698,7 @@
         <v>49560</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>62</v>
       </c>
@@ -1691,7 +1712,7 @@
         <v>87075</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>38</v>
       </c>
@@ -1705,7 +1726,7 @@
         <v>57875</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>49</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>57217</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>33</v>
       </c>
@@ -1733,7 +1754,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>21</v>
       </c>
@@ -1747,7 +1768,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>65</v>
       </c>
@@ -1761,7 +1782,7 @@
         <v>64019</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>46</v>
       </c>
@@ -1775,7 +1796,7 @@
         <v>73068</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>65</v>
       </c>
@@ -1789,7 +1810,7 @@
         <v>73181</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>50</v>
       </c>
